--- a/data_year/zb/国民经济核算/三大需求对国内生产总值增长的贡献率和拉动.xlsx
+++ b/data_year/zb/国民经济核算/三大需求对国内生产总值增长的贡献率和拉动.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.7</v>
+        <v>5.0459447447303</v>
       </c>
       <c r="C2" t="n">
-        <v>78.8</v>
+        <v>47.4427032280895</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1.14988538601278</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5</v>
+        <v>-10.8113889221427</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>6.73981170552388</v>
       </c>
       <c r="G2" t="n">
-        <v>21.7</v>
+        <v>63.3686856940531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.2</v>
+        <v>6.27423040605307</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>65.693023272134</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.1</v>
+        <v>-0.6474544919201149</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.5</v>
+        <v>-6.77903746797724</v>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>3.9240562648977</v>
       </c>
       <c r="G3" t="n">
-        <v>63.5</v>
+        <v>41.0860141958433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.3</v>
+        <v>4.35620880765038</v>
       </c>
       <c r="C4" t="n">
-        <v>58.1</v>
+        <v>55.3961699506632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.194198172006589</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9</v>
+        <v>2.46954069825399</v>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.31332946914463</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>42.1342893510828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>3.89560592278008</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1</v>
+        <v>50.1613524562137</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5</v>
+        <v>-0.253045184019436</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.9</v>
+        <v>-3.25830921159706</v>
       </c>
       <c r="F5" t="n">
-        <v>6.9</v>
+        <v>4.12358935892779</v>
       </c>
       <c r="G5" t="n">
-        <v>68.8</v>
+        <v>53.0969567553834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.3</v>
+        <v>4.18189662923193</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9</v>
+        <v>56.316048057266</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5</v>
+        <v>-0.094197061834455</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.9</v>
+        <v>-1.26851683134423</v>
       </c>
       <c r="F6" t="n">
-        <v>6.3</v>
+        <v>3.33806408878006</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>44.9524687740783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4.85707638314603</v>
       </c>
       <c r="C7" t="n">
-        <v>56.8</v>
+        <v>68.97954160093239</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1</v>
+        <v>0.593241593878498</v>
       </c>
       <c r="E7" t="n">
-        <v>10.1</v>
+        <v>8.42513684700169</v>
       </c>
       <c r="F7" t="n">
-        <v>3.8</v>
+        <v>1.59101090168226</v>
       </c>
       <c r="G7" t="n">
-        <v>33.1</v>
+        <v>22.5953215520656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>4.51806962864869</v>
       </c>
       <c r="C8" t="n">
-        <v>43.2</v>
+        <v>65.969141480161</v>
       </c>
       <c r="D8" t="n">
-        <v>1.8</v>
+        <v>-0.799321371989767</v>
       </c>
       <c r="E8" t="n">
-        <v>14.3</v>
+        <v>-11.6710340944171</v>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>3.13001394832964</v>
       </c>
       <c r="G8" t="n">
-        <v>42.5</v>
+        <v>45.7018926142563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.8</v>
+        <v>3.88124001078923</v>
       </c>
       <c r="C9" t="n">
-        <v>47.9</v>
+        <v>55.8676814771848</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1</v>
+        <v>0.323844617226383</v>
       </c>
       <c r="E9" t="n">
-        <v>7.8</v>
+        <v>4.66151226747386</v>
       </c>
       <c r="F9" t="n">
-        <v>6.3</v>
+        <v>2.74211616529859</v>
       </c>
       <c r="G9" t="n">
-        <v>44.2</v>
+        <v>39.4708062553414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.2</v>
+        <v>4.31883411587706</v>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>63.984871538296</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>-0.485021427698422</v>
       </c>
       <c r="E10" t="n">
-        <v>2.7</v>
+        <v>-7.18574340017275</v>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>2.91596114436263</v>
       </c>
       <c r="G10" t="n">
-        <v>53.3</v>
+        <v>43.2008718618766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.4</v>
+        <v>3.48476514656898</v>
       </c>
       <c r="C11" t="n">
-        <v>57.6</v>
+        <v>58.5625533751102</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>0.7469647525442</v>
       </c>
       <c r="E11" t="n">
-        <v>-42.8</v>
+        <v>12.5529731130562</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>1.71877079754881</v>
       </c>
       <c r="G11" t="n">
-        <v>85.3</v>
+        <v>28.8844735118336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>-0.153173366486956</v>
       </c>
       <c r="C12" t="n">
-        <v>47.4</v>
+        <v>-6.84224011054964</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.1</v>
+        <v>0.567040796794255</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.8</v>
+        <v>25.3296599345427</v>
       </c>
       <c r="F12" t="n">
-        <v>6.7</v>
+        <v>1.82477611350502</v>
       </c>
       <c r="G12" t="n">
-        <v>63.4</v>
+        <v>81.51258017600711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.3</v>
+        <v>4.92308804287977</v>
       </c>
       <c r="C13" t="n">
-        <v>65.7</v>
+        <v>58.261396957157</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6</v>
+        <v>1.85263953694034</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.8</v>
+        <v>21.9247282478147</v>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>1.67427242017988</v>
       </c>
       <c r="G13" t="n">
-        <v>41.1</v>
+        <v>19.8138747950282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.4</v>
+        <v>0.981413118413281</v>
       </c>
       <c r="C14" t="n">
-        <v>55.4</v>
+        <v>32.8231812178355</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2</v>
+        <v>0.511549698598217</v>
       </c>
       <c r="E14" t="n">
-        <v>2.5</v>
+        <v>17.1086855718467</v>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>1.49703718298851</v>
       </c>
       <c r="G14" t="n">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>69</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>66</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>45.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>64</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.153266182927446</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-6.84224030926098</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.567384333957961</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25.3296577659804</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.8258818489695</v>
-      </c>
-      <c r="G22" t="n">
-        <v>81.5125825432814</v>
+        <v>50.0681332103182</v>
       </c>
     </row>
   </sheetData>
